--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,10 @@
     <t>Itgb8</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.014112</v>
+      </c>
+      <c r="H2">
+        <v>0.042336</v>
+      </c>
+      <c r="I2">
+        <v>0.1773673913134555</v>
+      </c>
+      <c r="J2">
+        <v>0.1773673913134555</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.05926299999999999</v>
-      </c>
-      <c r="H2">
-        <v>0.177789</v>
-      </c>
-      <c r="I2">
-        <v>0.4396528061129863</v>
-      </c>
-      <c r="J2">
-        <v>0.4396528061129863</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.009520000000000001</v>
+        <v>0.2640103333333333</v>
       </c>
       <c r="N2">
-        <v>0.02856</v>
+        <v>0.792031</v>
       </c>
       <c r="O2">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="P2">
-        <v>0.0009583584527718874</v>
+        <v>0.03701723608351285</v>
       </c>
       <c r="Q2">
-        <v>0.0005641837599999999</v>
+        <v>0.003725713824</v>
       </c>
       <c r="R2">
-        <v>0.00507765384</v>
+        <v>0.033531424416</v>
       </c>
       <c r="S2">
-        <v>0.0004213449830232602</v>
+        <v>0.006565650597766989</v>
       </c>
       <c r="T2">
-        <v>0.0004213449830232602</v>
+        <v>0.006565650597766988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H3">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +626,22 @@
         <v>3.23744</v>
       </c>
       <c r="O3">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="P3">
-        <v>0.1086354338004839</v>
+        <v>0.1513085735106427</v>
       </c>
       <c r="Q3">
-        <v>0.06395346890666666</v>
+        <v>0.01522891776</v>
       </c>
       <c r="R3">
-        <v>0.57558122016</v>
+        <v>0.13706025984</v>
       </c>
       <c r="S3">
-        <v>0.04776187331368429</v>
+        <v>0.02683720696694291</v>
       </c>
       <c r="T3">
-        <v>0.0477618733136843</v>
+        <v>0.02683720696694291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H4">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I4">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J4">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.844986</v>
+        <v>0.003021333333333333</v>
       </c>
       <c r="N4">
-        <v>26.534958</v>
+        <v>0.009063999999999999</v>
       </c>
       <c r="O4">
-        <v>0.8904062077467443</v>
+        <v>0.0004236251205583625</v>
       </c>
       <c r="P4">
-        <v>0.8904062077467442</v>
+        <v>0.0004236251205583626</v>
       </c>
       <c r="Q4">
-        <v>0.5241804053179999</v>
+        <v>4.263705599999999E-05</v>
       </c>
       <c r="R4">
-        <v>4.717623647861999</v>
+        <v>0.000383733504</v>
       </c>
       <c r="S4">
-        <v>0.3914695878162788</v>
+        <v>7.513728252828485E-05</v>
       </c>
       <c r="T4">
-        <v>0.3914695878162788</v>
+        <v>7.513728252828485E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.075532</v>
+        <v>0.014112</v>
       </c>
       <c r="H5">
-        <v>0.226596</v>
+        <v>0.042336</v>
       </c>
       <c r="I5">
-        <v>0.5603471938870136</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J5">
-        <v>0.5603471938870137</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.009520000000000001</v>
+        <v>5.782978</v>
       </c>
       <c r="N5">
-        <v>0.02856</v>
+        <v>17.348934</v>
       </c>
       <c r="O5">
-        <v>0.0009583584527718874</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="P5">
-        <v>0.0009583584527718874</v>
+        <v>0.8108389516007365</v>
       </c>
       <c r="Q5">
-        <v>0.0007190646400000001</v>
+        <v>0.081609385536</v>
       </c>
       <c r="R5">
-        <v>0.006471581760000001</v>
+        <v>0.734484469824</v>
       </c>
       <c r="S5">
-        <v>0.0005370134697486272</v>
+        <v>0.1438163896207598</v>
       </c>
       <c r="T5">
-        <v>0.0005370134697486273</v>
+        <v>0.1438163896207598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.075532</v>
+        <v>0.014112</v>
       </c>
       <c r="H6">
-        <v>0.226596</v>
+        <v>0.042336</v>
       </c>
       <c r="I6">
-        <v>0.5603471938870136</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J6">
-        <v>0.5603471938870137</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.079146666666667</v>
+        <v>0.002935666666666667</v>
       </c>
       <c r="N6">
-        <v>3.23744</v>
+        <v>0.008807000000000001</v>
       </c>
       <c r="O6">
-        <v>0.1086354338004839</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="P6">
-        <v>0.1086354338004839</v>
+        <v>0.0004116136845495917</v>
       </c>
       <c r="Q6">
-        <v>0.08151010602666667</v>
+        <v>4.1428128E-05</v>
       </c>
       <c r="R6">
-        <v>0.7335909542400001</v>
+        <v>0.000372853152</v>
       </c>
       <c r="S6">
-        <v>0.06087356048679956</v>
+        <v>7.300684545748066E-05</v>
       </c>
       <c r="T6">
-        <v>0.06087356048679957</v>
+        <v>7.300684545748065E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,46 +850,604 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H7">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I7">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J7">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2640103333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.792031</v>
+      </c>
+      <c r="O7">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="P7">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="Q7">
+        <v>0.01564604438433333</v>
+      </c>
+      <c r="R7">
+        <v>0.140814399459</v>
+      </c>
+      <c r="S7">
+        <v>0.02757228963828409</v>
+      </c>
+      <c r="T7">
+        <v>0.02757228963828408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.059263</v>
+      </c>
+      <c r="H8">
+        <v>0.177789</v>
+      </c>
+      <c r="I8">
+        <v>0.7448500362393221</v>
+      </c>
+      <c r="J8">
+        <v>0.7448500362393219</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>8.844986</v>
-      </c>
-      <c r="N7">
-        <v>26.534958</v>
-      </c>
-      <c r="O7">
-        <v>0.8904062077467443</v>
-      </c>
-      <c r="P7">
-        <v>0.8904062077467442</v>
-      </c>
-      <c r="Q7">
-        <v>0.668079482552</v>
-      </c>
-      <c r="R7">
-        <v>6.012715342968001</v>
-      </c>
-      <c r="S7">
-        <v>0.4989366199304655</v>
-      </c>
-      <c r="T7">
-        <v>0.4989366199304655</v>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.23744</v>
+      </c>
+      <c r="O8">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="P8">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="Q8">
+        <v>0.06395346890666667</v>
+      </c>
+      <c r="R8">
+        <v>0.57558122016</v>
+      </c>
+      <c r="S8">
+        <v>0.1127021964627224</v>
+      </c>
+      <c r="T8">
+        <v>0.1127021964627223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.059263</v>
+      </c>
+      <c r="H9">
+        <v>0.177789</v>
+      </c>
+      <c r="I9">
+        <v>0.7448500362393221</v>
+      </c>
+      <c r="J9">
+        <v>0.7448500362393219</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P9">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q9">
+        <v>0.0001790532773333333</v>
+      </c>
+      <c r="R9">
+        <v>0.001611479496</v>
+      </c>
+      <c r="S9">
+        <v>0.0003155371863997835</v>
+      </c>
+      <c r="T9">
+        <v>0.0003155371863997835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.059263</v>
+      </c>
+      <c r="H10">
+        <v>0.177789</v>
+      </c>
+      <c r="I10">
+        <v>0.7448500362393221</v>
+      </c>
+      <c r="J10">
+        <v>0.7448500362393219</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.782978</v>
+      </c>
+      <c r="N10">
+        <v>17.348934</v>
+      </c>
+      <c r="O10">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P10">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q10">
+        <v>0.342716625214</v>
+      </c>
+      <c r="R10">
+        <v>3.084449626926</v>
+      </c>
+      <c r="S10">
+        <v>0.6039534224840625</v>
+      </c>
+      <c r="T10">
+        <v>0.6039534224840624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.059263</v>
+      </c>
+      <c r="H11">
+        <v>0.177789</v>
+      </c>
+      <c r="I11">
+        <v>0.7448500362393221</v>
+      </c>
+      <c r="J11">
+        <v>0.7448500362393219</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P11">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q11">
+        <v>0.0001739764136666667</v>
+      </c>
+      <c r="R11">
+        <v>0.001565787723</v>
+      </c>
+      <c r="S11">
+        <v>0.0003065904678533643</v>
+      </c>
+      <c r="T11">
+        <v>0.0003065904678533642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.018566</v>
+      </c>
+      <c r="I12">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J12">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2640103333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.792031</v>
+      </c>
+      <c r="O12">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="P12">
+        <v>0.03701723608351285</v>
+      </c>
+      <c r="Q12">
+        <v>0.001633871949555556</v>
+      </c>
+      <c r="R12">
+        <v>0.014704847546</v>
+      </c>
+      <c r="S12">
+        <v>0.00287929584746178</v>
+      </c>
+      <c r="T12">
+        <v>0.002879295847461779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.018566</v>
+      </c>
+      <c r="I13">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J13">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.079146666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.23744</v>
+      </c>
+      <c r="O13">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="P13">
+        <v>0.1513085735106427</v>
+      </c>
+      <c r="Q13">
+        <v>0.006678479004444444</v>
+      </c>
+      <c r="R13">
+        <v>0.06010631104000001</v>
+      </c>
+      <c r="S13">
+        <v>0.01176917008097746</v>
+      </c>
+      <c r="T13">
+        <v>0.01176917008097746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.018566</v>
+      </c>
+      <c r="I14">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J14">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.003021333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.009063999999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.0004236251205583625</v>
+      </c>
+      <c r="P14">
+        <v>0.0004236251205583626</v>
+      </c>
+      <c r="Q14">
+        <v>1.869802488888889E-05</v>
+      </c>
+      <c r="R14">
+        <v>0.000168282224</v>
+      </c>
+      <c r="S14">
+        <v>3.295065163029422E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.295065163029422E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.018566</v>
+      </c>
+      <c r="I15">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J15">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.782978</v>
+      </c>
+      <c r="N15">
+        <v>17.348934</v>
+      </c>
+      <c r="O15">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="P15">
+        <v>0.8108389516007365</v>
+      </c>
+      <c r="Q15">
+        <v>0.03578892318266666</v>
+      </c>
+      <c r="R15">
+        <v>0.322100308644</v>
+      </c>
+      <c r="S15">
+        <v>0.06306913949591428</v>
+      </c>
+      <c r="T15">
+        <v>0.06306913949591426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.018566</v>
+      </c>
+      <c r="I16">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J16">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.002935666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.008807000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="P16">
+        <v>0.0004116136845495917</v>
+      </c>
+      <c r="Q16">
+        <v>1.816786244444444E-05</v>
+      </c>
+      <c r="R16">
+        <v>0.000163510762</v>
+      </c>
+      <c r="S16">
+        <v>3.201637123874683E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.201637123874683E-05</v>
       </c>
     </row>
   </sheetData>
